--- a/data/texaco_data.xlsx
+++ b/data/texaco_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\Faculdade\gasification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B907B38-AEEC-4222-9BDC-C2CCAC7ED25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6CBC2-45DE-4A90-A373-4570F31E3A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1425" windowWidth="19695" windowHeight="11370" xr2:uid="{52A8E8F1-B225-4F82-B8D0-D81974339462}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52A8E8F1-B225-4F82-B8D0-D81974339462}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t>fuel_rate</t>
   </si>
@@ -603,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="A6:Q6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,25 +778,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>74.05</v>
+        <v>73.545000000000002</v>
       </c>
       <c r="G2">
-        <v>6.25</v>
+        <v>6.0350000000000001</v>
       </c>
       <c r="H2">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="I2">
-        <v>1.77</v>
+        <v>0.72</v>
       </c>
       <c r="J2">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="K2">
-        <v>0.37</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L2">
-        <v>15.53</v>
+        <v>16.18</v>
       </c>
       <c r="M2">
         <v>98.64</v>
@@ -813,8 +813,8 @@
       <c r="Q2">
         <v>9.9849999999999994</v>
       </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="R2" t="s">
+        <v>66</v>
       </c>
       <c r="S2">
         <v>0.15</v>
@@ -834,8 +834,8 @@
       <c r="X2">
         <v>2.95</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
+      <c r="Y2" t="s">
+        <v>66</v>
       </c>
       <c r="Z2">
         <v>0.12</v>
@@ -855,8 +855,8 @@
       <c r="AE2">
         <v>10.039999999999999</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
+      <c r="AF2" t="s">
+        <v>66</v>
       </c>
       <c r="AG2">
         <v>0.2</v>
@@ -876,8 +876,8 @@
       <c r="AL2">
         <v>2.92</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
+      <c r="AM2" t="s">
+        <v>66</v>
       </c>
       <c r="AN2">
         <v>0.16</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="AS2">
         <f>SUM(F2:L2)</f>
-        <v>99.999999999999986</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -918,25 +918,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>73.040000000000006</v>
+        <v>73.545000000000002</v>
       </c>
       <c r="G3">
-        <v>5.82</v>
+        <v>6.0350000000000001</v>
       </c>
       <c r="H3">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="I3">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J3">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="K3">
-        <v>0.48</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L3">
-        <v>16.829999999999998</v>
+        <v>16.18</v>
       </c>
       <c r="M3">
         <v>90.66</v>
@@ -953,8 +953,8 @@
       <c r="Q3">
         <v>17.2</v>
       </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="R3" t="s">
+        <v>66</v>
       </c>
       <c r="S3">
         <v>0.56000000000000005</v>
@@ -974,8 +974,8 @@
       <c r="X3">
         <v>5.15</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
+      <c r="Y3" t="s">
+        <v>66</v>
       </c>
       <c r="Z3">
         <v>0.46</v>
@@ -995,8 +995,8 @@
       <c r="AE3">
         <v>13.54</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
+      <c r="AF3" t="s">
+        <v>66</v>
       </c>
       <c r="AG3">
         <v>0.24199999999999999</v>
@@ -1016,8 +1016,8 @@
       <c r="AL3">
         <v>3.89</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
+      <c r="AM3" t="s">
+        <v>66</v>
       </c>
       <c r="AN3">
         <v>0.193</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="AS3">
         <f t="shared" ref="AS3:AS30" si="2">SUM(F3:L3)</f>
-        <v>99.970000000000027</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -1085,17 +1085,107 @@
         <f t="shared" si="3"/>
         <v>16.18</v>
       </c>
+      <c r="M4">
+        <v>98.28</v>
+      </c>
+      <c r="N4">
+        <v>99.75</v>
+      </c>
+      <c r="O4">
+        <v>121.5</v>
+      </c>
+      <c r="P4">
+        <v>6.24</v>
+      </c>
+      <c r="Q4">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4">
+        <v>0.114</v>
+      </c>
+      <c r="T4">
+        <v>0.67</v>
+      </c>
+      <c r="U4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="V4">
+        <v>54.66</v>
+      </c>
+      <c r="W4">
+        <v>39.31</v>
+      </c>
+      <c r="X4">
+        <v>5.51</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4">
+        <v>0.08</v>
+      </c>
+      <c r="AA4">
+        <v>0.26</v>
+      </c>
+      <c r="AB4">
+        <v>0.11</v>
+      </c>
+      <c r="AC4">
+        <v>126.4</v>
+      </c>
+      <c r="AD4">
+        <v>6.36</v>
+      </c>
+      <c r="AE4">
+        <v>14.56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4">
+        <v>0.17</v>
+      </c>
+      <c r="AH4">
+        <v>0.77</v>
+      </c>
+      <c r="AI4">
+        <v>0.496</v>
+      </c>
+      <c r="AJ4">
+        <v>55.89</v>
+      </c>
+      <c r="AK4">
+        <v>39.39</v>
+      </c>
+      <c r="AL4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.22</v>
+      </c>
       <c r="AQ4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="AR4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.011</v>
       </c>
       <c r="AS4">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1128,11 +1218,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
@@ -1142,17 +1232,107 @@
         <f t="shared" si="4"/>
         <v>16.18</v>
       </c>
+      <c r="M5">
+        <v>97.24</v>
+      </c>
+      <c r="N5">
+        <v>99.76</v>
+      </c>
+      <c r="O5">
+        <v>116</v>
+      </c>
+      <c r="P5">
+        <v>5.78</v>
+      </c>
+      <c r="Q5">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5">
+        <v>0.15</v>
+      </c>
+      <c r="T5">
+        <v>0.32</v>
+      </c>
+      <c r="U5">
+        <v>1.24E-2</v>
+      </c>
+      <c r="V5">
+        <v>55.7</v>
+      </c>
+      <c r="W5">
+        <v>38.9</v>
+      </c>
+      <c r="X5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5">
+        <v>0.12</v>
+      </c>
+      <c r="AA5">
+        <v>0.11</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>119.96</v>
+      </c>
+      <c r="AD5">
+        <v>6.16</v>
+      </c>
+      <c r="AE5">
+        <v>15.73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="AI5">
+        <v>0.437</v>
+      </c>
+      <c r="AJ5">
+        <v>55.18</v>
+      </c>
+      <c r="AK5">
+        <v>39.69</v>
+      </c>
+      <c r="AL5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN5">
+        <v>0.12</v>
+      </c>
+      <c r="AO5">
+        <v>0.2</v>
+      </c>
+      <c r="AP5">
+        <v>0.20100000000000001</v>
+      </c>
       <c r="AQ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.991</v>
       </c>
       <c r="AS5">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1185,11 +1365,11 @@
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I18" si="8">I5</f>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J18" si="9">J5</f>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K18" si="10">K5</f>
@@ -1199,17 +1379,107 @@
         <f t="shared" ref="L6:L18" si="11">L5</f>
         <v>16.18</v>
       </c>
+      <c r="M6">
+        <v>97.34</v>
+      </c>
+      <c r="N6">
+        <v>99.75</v>
+      </c>
+      <c r="O6">
+        <v>119.54</v>
+      </c>
+      <c r="P6">
+        <v>6.1070000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>18.14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6">
+        <v>0.185</v>
+      </c>
+      <c r="T6">
+        <v>0.7</v>
+      </c>
+      <c r="U6">
+        <v>0.24</v>
+      </c>
+      <c r="V6">
+        <v>54.9</v>
+      </c>
+      <c r="W6">
+        <v>39.26</v>
+      </c>
+      <c r="X6">
+        <v>5.3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.23</v>
+      </c>
+      <c r="AB6">
+        <v>0.11</v>
+      </c>
+      <c r="AC6">
+        <v>125.09</v>
+      </c>
+      <c r="AD6">
+        <v>6.36</v>
+      </c>
+      <c r="AE6">
+        <v>14.37</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG6">
+        <v>0.17</v>
+      </c>
+      <c r="AH6">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AI6">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>55.71</v>
+      </c>
+      <c r="AK6">
+        <v>39.68</v>
+      </c>
+      <c r="AL6">
+        <v>4.07</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AP6">
+        <v>0.2</v>
+      </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.989000000000019</v>
       </c>
       <c r="AS6">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1242,11 +1512,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J7">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K7">
         <f t="shared" si="10"/>
@@ -1256,17 +1526,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M7">
+        <v>98.875</v>
+      </c>
+      <c r="N7">
+        <v>99.77</v>
+      </c>
+      <c r="O7">
+        <v>103.32</v>
+      </c>
+      <c r="P7">
+        <v>5.3</v>
+      </c>
+      <c r="Q7">
+        <v>19.972000000000001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="V7">
+        <v>54.02</v>
+      </c>
+      <c r="W7">
+        <v>38.78</v>
+      </c>
+      <c r="X7">
+        <v>6.64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA7">
+        <v>0.21</v>
+      </c>
+      <c r="AB7">
+        <v>0.22</v>
+      </c>
+      <c r="AC7">
+        <v>106.37</v>
+      </c>
+      <c r="AD7">
+        <v>5.39</v>
+      </c>
+      <c r="AE7">
+        <v>16.824000000000002</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG7">
+        <v>0.112</v>
+      </c>
+      <c r="AH7">
+        <v>0.68</v>
+      </c>
+      <c r="AI7">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>54.89</v>
+      </c>
+      <c r="AK7">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="AL7">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AO7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.217</v>
+      </c>
       <c r="AQ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00300000000001</v>
       </c>
       <c r="AS7">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1299,11 +1659,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J8">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K8">
         <f t="shared" si="10"/>
@@ -1313,17 +1673,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M8">
+        <v>98.867999999999995</v>
+      </c>
+      <c r="N8">
+        <v>99.75</v>
+      </c>
+      <c r="O8">
+        <v>92.3</v>
+      </c>
+      <c r="P8">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>19.986999999999998</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="T8">
+        <v>0.73</v>
+      </c>
+      <c r="U8">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="V8">
+        <v>52.48</v>
+      </c>
+      <c r="W8">
+        <v>39.85</v>
+      </c>
+      <c r="X8">
+        <v>7.22</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8">
+        <v>0.08</v>
+      </c>
+      <c r="AA8">
+        <v>0.31</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>95.45</v>
+      </c>
+      <c r="AD8">
+        <v>5.08</v>
+      </c>
+      <c r="AE8">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG8">
+        <v>0.1</v>
+      </c>
+      <c r="AH8">
+        <v>0.62</v>
+      </c>
+      <c r="AI8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>53.56</v>
+      </c>
+      <c r="AK8">
+        <v>39.92</v>
+      </c>
+      <c r="AL8">
+        <v>5.92</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AO8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP8">
+        <v>0.217</v>
+      </c>
       <c r="AQ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00500000000001</v>
       </c>
       <c r="AS8">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1356,11 +1806,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K9">
         <f t="shared" si="10"/>
@@ -1370,17 +1820,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M9">
+        <v>98.885000000000005</v>
+      </c>
+      <c r="N9">
+        <v>99.76</v>
+      </c>
+      <c r="O9">
+        <v>81.852999999999994</v>
+      </c>
+      <c r="P9">
+        <v>4.53</v>
+      </c>
+      <c r="Q9">
+        <v>20.61</v>
+      </c>
+      <c r="R9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="U9">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="V9">
+        <v>51.39</v>
+      </c>
+      <c r="W9">
+        <v>39.83</v>
+      </c>
+      <c r="X9">
+        <v>8.23</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z9">
+        <v>0.04</v>
+      </c>
+      <c r="AA9">
+        <v>0.41</v>
+      </c>
+      <c r="AB9">
+        <v>0.04</v>
+      </c>
+      <c r="AC9">
+        <v>81.186000000000007</v>
+      </c>
+      <c r="AD9">
+        <v>4.38</v>
+      </c>
+      <c r="AE9">
+        <v>16.460999999999999</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AH9">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AI9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>52.75</v>
+      </c>
+      <c r="AK9">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="AL9">
+        <v>6.81</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AO9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.218</v>
+      </c>
       <c r="AQ9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.940000000000012</v>
       </c>
       <c r="AR9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.992000000000019</v>
       </c>
       <c r="AS9">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1413,11 +1953,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J10">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K10">
         <f t="shared" si="10"/>
@@ -1427,17 +1967,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M10">
+        <v>97.122</v>
+      </c>
+      <c r="N10">
+        <v>97.897999999999996</v>
+      </c>
+      <c r="O10">
+        <v>125.2</v>
+      </c>
+      <c r="P10">
+        <v>6.41</v>
+      </c>
+      <c r="Q10">
+        <v>17.93</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10">
+        <v>0.27</v>
+      </c>
+      <c r="T10">
+        <v>0.3</v>
+      </c>
+      <c r="U10">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="V10">
+        <v>55.03</v>
+      </c>
+      <c r="W10">
+        <v>39.43</v>
+      </c>
+      <c r="X10">
+        <v>5.01</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10">
+        <v>0.2</v>
+      </c>
+      <c r="AA10">
+        <v>0.1</v>
+      </c>
+      <c r="AB10">
+        <v>0.17</v>
+      </c>
+      <c r="AC10">
+        <v>129.34</v>
+      </c>
+      <c r="AD10">
+        <v>6.54</v>
+      </c>
+      <c r="AE10">
+        <v>14.35</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10">
+        <v>0.187</v>
+      </c>
+      <c r="AH10">
+        <v>0.89</v>
+      </c>
+      <c r="AI10">
+        <v>0.53</v>
+      </c>
+      <c r="AJ10">
+        <v>55.85</v>
+      </c>
+      <c r="AK10">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="AL10">
+        <v>3.94</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AO10">
+        <v>0.32</v>
+      </c>
+      <c r="AP10">
+        <v>0.23</v>
+      </c>
       <c r="AQ10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.940000000000012</v>
       </c>
       <c r="AR10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.002</v>
       </c>
       <c r="AS10">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -1470,11 +2100,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K11">
         <f t="shared" si="10"/>
@@ -1484,17 +2114,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M11">
+        <v>96.825999999999993</v>
+      </c>
+      <c r="N11">
+        <v>97.734999999999999</v>
+      </c>
+      <c r="O11">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="P11">
+        <v>6.67</v>
+      </c>
+      <c r="Q11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11">
+        <v>0.27</v>
+      </c>
+      <c r="T11">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="V11">
+        <v>55.33</v>
+      </c>
+      <c r="W11">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="X11">
+        <v>4.62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11">
+        <v>0.2</v>
+      </c>
+      <c r="AA11">
+        <v>0.08</v>
+      </c>
+      <c r="AB11">
+        <v>0.09</v>
+      </c>
+      <c r="AC11">
+        <v>133.58000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>6.85</v>
+      </c>
+      <c r="AE11">
+        <v>14.2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG11">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AI11">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>55.63</v>
+      </c>
+      <c r="AK11">
+        <v>39.96</v>
+      </c>
+      <c r="AL11">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN11">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.23100000000000001</v>
+      </c>
       <c r="AQ11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.006</v>
       </c>
       <c r="AS11">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -1527,11 +2247,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J12">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K12">
         <f t="shared" si="10"/>
@@ -1541,17 +2261,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M12">
+        <v>96.992000000000004</v>
+      </c>
+      <c r="N12">
+        <v>96.734999999999999</v>
+      </c>
+      <c r="O12">
+        <v>139.75</v>
+      </c>
+      <c r="P12">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>17.3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.64</v>
+      </c>
+      <c r="V12">
+        <v>55.87</v>
+      </c>
+      <c r="W12">
+        <v>39.03</v>
+      </c>
+      <c r="X12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12">
+        <v>0.13</v>
+      </c>
+      <c r="AA12">
+        <v>0.26</v>
+      </c>
+      <c r="AB12">
+        <v>0.25</v>
+      </c>
+      <c r="AC12">
+        <v>141.11000000000001</v>
+      </c>
+      <c r="AD12">
+        <v>7.08</v>
+      </c>
+      <c r="AE12">
+        <v>14.29</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12">
+        <v>0.22</v>
+      </c>
+      <c r="AH12">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AI12">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AJ12">
+        <v>56.222999999999999</v>
+      </c>
+      <c r="AK12">
+        <v>39.5</v>
+      </c>
+      <c r="AL12">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN12">
+        <v>0.153</v>
+      </c>
+      <c r="AO12">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AP12">
+        <v>0.23200000000000001</v>
+      </c>
       <c r="AQ12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.940000000000012</v>
       </c>
       <c r="AR12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00200000000001</v>
       </c>
       <c r="AS12">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -1584,11 +2394,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J13">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K13">
         <f t="shared" si="10"/>
@@ -1598,17 +2408,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M13">
+        <v>98.641000000000005</v>
+      </c>
+      <c r="N13">
+        <v>97.744</v>
+      </c>
+      <c r="O13">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="P13">
+        <v>6.7320000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>14.27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13">
+        <v>0.13</v>
+      </c>
+      <c r="T13">
+        <v>0.91</v>
+      </c>
+      <c r="U13">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="V13">
+        <v>57.38</v>
+      </c>
+      <c r="W13">
+        <v>38.43</v>
+      </c>
+      <c r="X13">
+        <v>3.7</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13">
+        <v>0.09</v>
+      </c>
+      <c r="AA13">
+        <v>0.3</v>
+      </c>
+      <c r="AB13">
+        <v>0.04</v>
+      </c>
+      <c r="AC13">
+        <v>140.09</v>
+      </c>
+      <c r="AD13">
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="AE13">
+        <v>12.77</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG13">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AI13">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AJ13">
+        <v>57.39</v>
+      </c>
+      <c r="AK13">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="AL13">
+        <v>3.54</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN13">
+        <v>0.15</v>
+      </c>
+      <c r="AO13">
+        <v>0.27</v>
+      </c>
+      <c r="AP13">
+        <v>0.23</v>
+      </c>
       <c r="AQ13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.940000000000012</v>
       </c>
       <c r="AR13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.21000000000002</v>
       </c>
       <c r="AS13">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -1641,11 +2541,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J14">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K14">
         <f t="shared" si="10"/>
@@ -1655,17 +2555,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M14">
+        <v>98.662999999999997</v>
+      </c>
+      <c r="N14">
+        <v>97.233000000000004</v>
+      </c>
+      <c r="O14">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="P14">
+        <v>6.9130000000000003</v>
+      </c>
+      <c r="Q14">
+        <v>14.4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="V14">
+        <v>57.67</v>
+      </c>
+      <c r="W14">
+        <v>38.28</v>
+      </c>
+      <c r="X14">
+        <v>3.62</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14">
+        <v>0.03</v>
+      </c>
+      <c r="AA14">
+        <v>0.25</v>
+      </c>
+      <c r="AB14">
+        <v>0.08</v>
+      </c>
+      <c r="AC14">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="AD14">
+        <v>7.8529999999999998</v>
+      </c>
+      <c r="AE14">
+        <v>13.43</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14">
+        <v>0.22</v>
+      </c>
+      <c r="AH14">
+        <v>0.82</v>
+      </c>
+      <c r="AI14">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AJ14">
+        <v>57.56</v>
+      </c>
+      <c r="AK14">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="AL14">
+        <v>3.42</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14">
+        <v>0.152</v>
+      </c>
+      <c r="AO14">
+        <v>0.27</v>
+      </c>
+      <c r="AP14">
+        <v>0.23</v>
+      </c>
       <c r="AQ14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="AR14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00200000000001</v>
       </c>
       <c r="AS14">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -1698,11 +2688,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J15">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K15">
         <f t="shared" si="10"/>
@@ -1712,17 +2702,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M15">
+        <v>98.605000000000004</v>
+      </c>
+      <c r="N15">
+        <v>98.228999999999999</v>
+      </c>
+      <c r="O15">
+        <v>141.07300000000001</v>
+      </c>
+      <c r="P15">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>15.28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="T15">
+        <v>1.18</v>
+      </c>
+      <c r="U15">
+        <v>0.46</v>
+      </c>
+      <c r="V15">
+        <v>57.02</v>
+      </c>
+      <c r="W15">
+        <v>38.39</v>
+      </c>
+      <c r="X15">
+        <v>3.93</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15">
+        <v>0.04</v>
+      </c>
+      <c r="AA15">
+        <v>0.37</v>
+      </c>
+      <c r="AB15">
+        <v>0.18</v>
+      </c>
+      <c r="AC15">
+        <v>141.709</v>
+      </c>
+      <c r="AD15">
+        <v>6.43</v>
+      </c>
+      <c r="AE15">
+        <v>12.81</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AH15">
+        <v>0.81</v>
+      </c>
+      <c r="AI15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AJ15">
+        <v>57.46</v>
+      </c>
+      <c r="AK15">
+        <v>38.58</v>
+      </c>
+      <c r="AL15">
+        <v>3.31</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN15">
+        <v>0.15</v>
+      </c>
+      <c r="AO15">
+        <v>0.27</v>
+      </c>
+      <c r="AP15">
+        <v>0.23</v>
+      </c>
       <c r="AQ15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.930000000000021</v>
       </c>
       <c r="AR15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS15">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -1755,11 +2835,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J16">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K16">
         <f t="shared" si="10"/>
@@ -1769,17 +2849,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M16">
+        <v>97.45</v>
+      </c>
+      <c r="N16">
+        <v>97.6</v>
+      </c>
+      <c r="O16">
+        <v>125.4</v>
+      </c>
+      <c r="P16">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="Q16">
+        <v>12.89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V16">
+        <v>57.49</v>
+      </c>
+      <c r="W16">
+        <v>38.29</v>
+      </c>
+      <c r="X16">
+        <v>3.76</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA16">
+        <v>0.26</v>
+      </c>
+      <c r="AB16">
+        <v>0.06</v>
+      </c>
+      <c r="AC16">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="AD16">
+        <v>6.43</v>
+      </c>
+      <c r="AE16">
+        <v>13.88</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG16">
+        <v>0.189</v>
+      </c>
+      <c r="AH16">
+        <v>0.65</v>
+      </c>
+      <c r="AI16">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="AJ16">
+        <v>56.7</v>
+      </c>
+      <c r="AK16">
+        <v>38.884999999999998</v>
+      </c>
+      <c r="AL16">
+        <v>3.82</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN16">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AO16">
+        <v>0.23</v>
+      </c>
+      <c r="AP16">
+        <v>0.23</v>
+      </c>
       <c r="AQ16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="AR16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00800000000001</v>
       </c>
       <c r="AS16">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -1812,11 +2982,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J17">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K17">
         <f t="shared" si="10"/>
@@ -1826,17 +2996,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M17">
+        <v>99.158000000000001</v>
+      </c>
+      <c r="N17">
+        <v>96.01</v>
+      </c>
+      <c r="O17">
+        <v>201.16</v>
+      </c>
+      <c r="P17">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>26.92</v>
+      </c>
+      <c r="R17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17">
+        <v>0.15</v>
+      </c>
+      <c r="T17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U17">
+        <v>1.73</v>
+      </c>
+      <c r="V17">
+        <v>55.18</v>
+      </c>
+      <c r="W17">
+        <v>39.24</v>
+      </c>
+      <c r="X17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA17">
+        <v>0.1</v>
+      </c>
+      <c r="AB17">
+        <v>0.47</v>
+      </c>
+      <c r="AC17">
+        <v>195.91800000000001</v>
+      </c>
+      <c r="AD17">
+        <v>9.99</v>
+      </c>
+      <c r="AE17">
+        <v>24.76</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AH17">
+        <v>0.94</v>
+      </c>
+      <c r="AI17">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AJ17">
+        <v>55.42</v>
+      </c>
+      <c r="AK17">
+        <v>39.56</v>
+      </c>
+      <c r="AL17">
+        <v>4.46</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AO17">
+        <v>0.22</v>
+      </c>
+      <c r="AP17">
+        <v>0.19</v>
+      </c>
       <c r="AQ17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.24</v>
       </c>
       <c r="AR17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.99</v>
       </c>
       <c r="AS17">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -1869,11 +3129,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
       <c r="J18">
         <f t="shared" si="9"/>
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="K18">
         <f t="shared" si="10"/>
@@ -1883,17 +3143,107 @@
         <f t="shared" si="11"/>
         <v>16.18</v>
       </c>
+      <c r="M18">
+        <v>99.186999999999998</v>
+      </c>
+      <c r="N18">
+        <v>96.57</v>
+      </c>
+      <c r="O18">
+        <v>204.15</v>
+      </c>
+      <c r="P18">
+        <v>10.57</v>
+      </c>
+      <c r="Q18">
+        <v>29.96</v>
+      </c>
+      <c r="R18" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18">
+        <v>0.193</v>
+      </c>
+      <c r="T18">
+        <v>0.68</v>
+      </c>
+      <c r="U18">
+        <v>0.42</v>
+      </c>
+      <c r="V18">
+        <v>54.79</v>
+      </c>
+      <c r="W18">
+        <v>39.72</v>
+      </c>
+      <c r="X18">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18">
+        <v>0.09</v>
+      </c>
+      <c r="AA18">
+        <v>0.12</v>
+      </c>
+      <c r="AB18">
+        <v>0.11</v>
+      </c>
+      <c r="AC18">
+        <v>199.72</v>
+      </c>
+      <c r="AD18">
+        <v>10.3</v>
+      </c>
+      <c r="AE18">
+        <v>27.5</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AH18">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="AI18">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AJ18">
+        <v>54.95</v>
+      </c>
+      <c r="AK18">
+        <v>39.69</v>
+      </c>
+      <c r="AL18">
+        <v>4.82</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN18">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AO18">
+        <v>0.22</v>
+      </c>
+      <c r="AP18">
+        <v>0.19</v>
+      </c>
       <c r="AQ18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="AR18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.004</v>
       </c>
       <c r="AS18">
         <f t="shared" si="2"/>
-        <v>99.985000000000014</v>
+        <v>99.984999999999985</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -1948,8 +3298,8 @@
       <c r="Q19">
         <v>19.149999999999999</v>
       </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="R19" t="s">
+        <v>66</v>
       </c>
       <c r="S19">
         <v>5.1700000000000003E-2</v>
@@ -1969,8 +3319,8 @@
       <c r="X19">
         <v>4.84</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
+      <c r="Y19" t="s">
+        <v>66</v>
       </c>
       <c r="Z19">
         <v>0.03</v>
@@ -1990,8 +3340,8 @@
       <c r="AE19">
         <v>17.98</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
+      <c r="AF19" t="s">
+        <v>66</v>
       </c>
       <c r="AG19">
         <v>0.57999999999999996</v>
@@ -2011,8 +3361,8 @@
       <c r="AL19">
         <v>4.51</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
+      <c r="AM19" t="s">
+        <v>66</v>
       </c>
       <c r="AN19">
         <v>0.40100000000000002</v>
@@ -2024,15 +3374,15 @@
         <v>0.224</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="0"/>
+        <f>SUM(V19:AB19)</f>
         <v>99.94</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="1"/>
+        <f>SUM(AJ19:AP19)</f>
         <v>99.995000000000005</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="2"/>
+        <f>SUM(F19:L19)</f>
         <v>99.98</v>
       </c>
     </row>
@@ -2073,13 +3423,103 @@
       <c r="L20">
         <v>11.05</v>
       </c>
+      <c r="M20">
+        <v>99.17</v>
+      </c>
+      <c r="N20">
+        <v>99.65</v>
+      </c>
+      <c r="O20">
+        <v>146.25</v>
+      </c>
+      <c r="P20">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="Q20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="T20">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="U20">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V20">
+        <v>57.67</v>
+      </c>
+      <c r="W20">
+        <v>37.9</v>
+      </c>
+      <c r="X20">
+        <v>4.29</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20">
+        <v>0.06</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0.03</v>
+      </c>
+      <c r="AC20">
+        <v>148.44</v>
+      </c>
+      <c r="AD20">
+        <v>6.7409999999999997</v>
+      </c>
+      <c r="AE20">
+        <v>13.4</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG20">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AH20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI20">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AJ20">
+        <v>58.65</v>
+      </c>
+      <c r="AK20">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AL20">
+        <v>3.37</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN20">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AO20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP20">
+        <v>0.216</v>
+      </c>
       <c r="AQ20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.95</v>
       </c>
       <c r="AR20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.99799999999999</v>
       </c>
       <c r="AS20">
         <f t="shared" si="2"/>
@@ -2123,13 +3563,103 @@
       <c r="L21">
         <v>11.05</v>
       </c>
+      <c r="M21">
+        <v>99.393000000000001</v>
+      </c>
+      <c r="N21">
+        <v>97.9</v>
+      </c>
+      <c r="O21">
+        <v>212.71</v>
+      </c>
+      <c r="P21">
+        <v>9.85</v>
+      </c>
+      <c r="Q21">
+        <v>25.66</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21">
+        <v>0.22</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="V21">
+        <v>57.8</v>
+      </c>
+      <c r="W21">
+        <v>37.47</v>
+      </c>
+      <c r="X21">
+        <v>4.43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21">
+        <v>0.1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0.15</v>
+      </c>
+      <c r="AC21">
+        <v>212.77</v>
+      </c>
+      <c r="AD21">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AE21">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG21">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AH21">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AI21">
+        <v>0.91</v>
+      </c>
+      <c r="AJ21">
+        <v>59.2</v>
+      </c>
+      <c r="AK21">
+        <v>36.81</v>
+      </c>
+      <c r="AL21">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN21">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AO21">
+        <v>0.02</v>
+      </c>
+      <c r="AP21">
+        <v>0.251</v>
+      </c>
       <c r="AQ21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.949999999999989</v>
       </c>
       <c r="AR21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.00700000000001</v>
       </c>
       <c r="AS21">
         <f t="shared" si="2"/>
@@ -2173,13 +3703,103 @@
       <c r="L22">
         <v>11.05</v>
       </c>
+      <c r="M22">
+        <v>99.394999999999996</v>
+      </c>
+      <c r="N22">
+        <v>98.85</v>
+      </c>
+      <c r="O22">
+        <v>208.2</v>
+      </c>
+      <c r="P22">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>34.015999999999998</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22">
+        <v>0.129</v>
+      </c>
+      <c r="T22">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="U22">
+        <v>0.68</v>
+      </c>
+      <c r="V22">
+        <v>56.02</v>
+      </c>
+      <c r="W22">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="X22">
+        <v>5.82</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22">
+        <v>0.06</v>
+      </c>
+      <c r="AA22">
+        <v>0.01</v>
+      </c>
+      <c r="AB22">
+        <v>0.18</v>
+      </c>
+      <c r="AC22">
+        <v>214.8</v>
+      </c>
+      <c r="AD22">
+        <v>1085</v>
+      </c>
+      <c r="AE22">
+        <v>21.38</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG22">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AH22">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AI22">
+        <v>0.96</v>
+      </c>
+      <c r="AJ22">
+        <v>58.97</v>
+      </c>
+      <c r="AK22">
+        <v>36.86</v>
+      </c>
+      <c r="AL22">
+        <v>3.75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN22">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AO22">
+        <v>0.02</v>
+      </c>
+      <c r="AP22">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="AQ22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.110000000000028</v>
       </c>
       <c r="AR22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.008</v>
       </c>
       <c r="AS22">
         <f t="shared" si="2"/>
@@ -2223,13 +3843,103 @@
       <c r="L23">
         <v>11.05</v>
       </c>
+      <c r="M23">
+        <v>98.765000000000001</v>
+      </c>
+      <c r="N23">
+        <v>98.215000000000003</v>
+      </c>
+      <c r="O23">
+        <v>211.44</v>
+      </c>
+      <c r="P23">
+        <v>10.06</v>
+      </c>
+      <c r="Q23">
+        <v>23.77</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1.2</v>
+      </c>
+      <c r="V23">
+        <v>57.61</v>
+      </c>
+      <c r="W23">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="X23">
+        <v>4.12</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z23">
+        <v>0.13</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0.32</v>
+      </c>
+      <c r="AC23">
+        <v>210.58</v>
+      </c>
+      <c r="AD23">
+        <v>9.56</v>
+      </c>
+      <c r="AE23">
+        <v>20.22</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23">
+        <v>4.2149999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AI23">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AJ23">
+        <v>58.46</v>
+      </c>
+      <c r="AK23">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="AL23">
+        <v>3.57</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN23">
+        <v>0.59</v>
+      </c>
+      <c r="AO23">
+        <v>2E-3</v>
+      </c>
+      <c r="AP23">
+        <v>0.21299999999999999</v>
+      </c>
       <c r="AQ23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.949999999999989</v>
       </c>
       <c r="AR23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.99499999999999</v>
       </c>
       <c r="AS23">
         <f t="shared" si="2"/>
@@ -2273,13 +3983,103 @@
       <c r="L24">
         <v>11.05</v>
       </c>
+      <c r="M24">
+        <v>98.210999999999999</v>
+      </c>
+      <c r="N24">
+        <v>97.66</v>
+      </c>
+      <c r="O24">
+        <v>215.34</v>
+      </c>
+      <c r="P24">
+        <v>10.343</v>
+      </c>
+      <c r="Q24">
+        <v>25.45</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24">
+        <v>0.34</v>
+      </c>
+      <c r="T24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U24">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="V24">
+        <v>57</v>
+      </c>
+      <c r="W24">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="X24">
+        <v>3.57</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24">
+        <v>0.59</v>
+      </c>
+      <c r="AA24">
+        <v>2E-3</v>
+      </c>
+      <c r="AB24">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AC24">
+        <v>214.78</v>
+      </c>
+      <c r="AD24">
+        <v>10.08</v>
+      </c>
+      <c r="AE24">
+        <v>21.09</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG24">
+        <v>1.32</v>
+      </c>
+      <c r="AH24">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AI24">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AJ24">
+        <v>57.95</v>
+      </c>
+      <c r="AK24">
+        <v>37.56</v>
+      </c>
+      <c r="AL24">
+        <v>3.62</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN24">
+        <v>0.625</v>
+      </c>
+      <c r="AO24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP24">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="AQ24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98.534999999999982</v>
       </c>
       <c r="AR24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.997000000000014</v>
       </c>
       <c r="AS24">
         <f t="shared" si="2"/>
@@ -2323,13 +4123,103 @@
       <c r="L25">
         <v>11.05</v>
       </c>
+      <c r="M25">
+        <v>97.9</v>
+      </c>
+      <c r="N25">
+        <v>98.283000000000001</v>
+      </c>
+      <c r="O25">
+        <v>215.07</v>
+      </c>
+      <c r="P25">
+        <v>10.97</v>
+      </c>
+      <c r="Q25">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25">
+        <v>0.41</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="V25">
+        <v>54.91</v>
+      </c>
+      <c r="W25">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="X25">
+        <v>5.49</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25">
+        <v>0.18</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0.18</v>
+      </c>
+      <c r="AC25">
+        <v>217.46</v>
+      </c>
+      <c r="AD25">
+        <v>10.6</v>
+      </c>
+      <c r="AE25">
+        <v>27.65</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25">
+        <v>1.6</v>
+      </c>
+      <c r="AH25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AI25">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="AJ25">
+        <v>56.17</v>
+      </c>
+      <c r="AK25">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="AL25">
+        <v>4.55</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN25">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AO25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP25">
+        <v>0.23599999999999999</v>
+      </c>
       <c r="AQ25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.960000000000008</v>
       </c>
       <c r="AR25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.06700000000001</v>
       </c>
       <c r="AS25">
         <f t="shared" si="2"/>
@@ -2373,13 +4263,103 @@
       <c r="L26">
         <v>11.05</v>
       </c>
+      <c r="M26">
+        <v>99.676000000000002</v>
+      </c>
+      <c r="N26">
+        <v>99.628</v>
+      </c>
+      <c r="O26">
+        <v>220.02</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <v>48.576000000000001</v>
+      </c>
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="V26">
+        <v>54.24</v>
+      </c>
+      <c r="W26">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="X26">
+        <v>7.62</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0.11</v>
+      </c>
+      <c r="AC26">
+        <v>228.74</v>
+      </c>
+      <c r="AD26">
+        <v>10.56</v>
+      </c>
+      <c r="AE26">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AH26">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="AI26">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AJ26">
+        <v>57.23</v>
+      </c>
+      <c r="AK26">
+        <v>37.01</v>
+      </c>
+      <c r="AL26">
+        <v>5.43</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN26">
+        <v>0.105</v>
+      </c>
+      <c r="AO26">
+        <v>1E-3</v>
+      </c>
+      <c r="AP26">
+        <v>0.22900000000000001</v>
+      </c>
       <c r="AQ26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.95</v>
       </c>
       <c r="AR26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100.005</v>
       </c>
       <c r="AS26">
         <f t="shared" si="2"/>
